--- a/DateBase/orders/name001_2024-10-24.xlsx
+++ b/DateBase/orders/name001_2024-10-24.xlsx
@@ -451,6 +451,18 @@
       <c r="F2" t="str">
         <v>12</v>
       </c>
+      <c r="G2" t="str">
+        <v>12</v>
+      </c>
+      <c r="H2" t="str">
+        <v>13</v>
+      </c>
+      <c r="K2">
+        <v>16.385652173913044</v>
+      </c>
+      <c r="L2">
+        <v>196.62782608695653</v>
+      </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
@@ -458,6 +470,18 @@
       </c>
       <c r="F3" t="str">
         <v>11</v>
+      </c>
+      <c r="G3" t="str">
+        <v>12</v>
+      </c>
+      <c r="H3" t="str">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>16.385652173913044</v>
+      </c>
+      <c r="L3">
+        <v>180.24217391304347</v>
       </c>
     </row>
   </sheetData>
@@ -502,25 +526,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>10.11</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>12.11</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>13.21</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>21.12</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>21.32</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>77.87</v>
       </c>
       <c r="G2" t="str">
         <v>01211</v>
+      </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/name001_2024-10-24.xlsx
+++ b/DateBase/orders/name001_2024-10-24.xlsx
@@ -458,10 +458,10 @@
         <v>13</v>
       </c>
       <c r="K2">
-        <v>16.385652173913044</v>
+        <v>16.820434782608697</v>
       </c>
       <c r="L2">
-        <v>196.62782608695653</v>
+        <v>201.84521739130435</v>
       </c>
     </row>
     <row r="3">
@@ -478,10 +478,10 @@
         <v>13</v>
       </c>
       <c r="K3">
-        <v>16.385652173913044</v>
+        <v>16.820434782608697</v>
       </c>
       <c r="L3">
-        <v>180.24217391304347</v>
+        <v>185.02478260869566</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +526,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>10.11</v>
+        <v>20.11</v>
       </c>
       <c r="B2" t="str">
         <v>12.11</v>
@@ -541,7 +541,7 @@
         <v>21.32</v>
       </c>
       <c r="F2" t="str">
-        <v>77.87</v>
+        <v>87.87</v>
       </c>
       <c r="G2" t="str">
         <v>01211</v>

--- a/DateBase/orders/name001_2024-10-24.xlsx
+++ b/DateBase/orders/name001_2024-10-24.xlsx
@@ -535,10 +535,10 @@
         <v>13.21</v>
       </c>
       <c r="D2" t="str">
-        <v>21.12</v>
+        <v>21.11</v>
       </c>
       <c r="E2" t="str">
-        <v>21.32</v>
+        <v>21.33</v>
       </c>
       <c r="F2" t="str">
         <v>87.87</v>

--- a/DateBase/orders/name001_2024-10-24.xlsx
+++ b/DateBase/orders/name001_2024-10-24.xlsx
@@ -33,7 +33,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
   </numFmts>
   <fonts count="1">
@@ -448,16 +452,46 @@
       <c r="C2" t="str">
         <v>2_粉洋桔梗_Pink Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E2" t="str">
+        <v>1</v>
+      </c>
       <c r="F2" t="str">
         <v>12</v>
+      </c>
+      <c r="G2" t="str">
+        <v>11</v>
+      </c>
+      <c r="H2" t="str">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>33.35478260869566</v>
+      </c>
+      <c r="L2">
+        <v>400.2573913043479</v>
       </c>
     </row>
     <row r="3">
       <c r="C3" t="str">
         <v>5_绿洋桔梗_Light Green Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
       </c>
+      <c r="E3" t="str">
+        <v>1</v>
+      </c>
       <c r="F3" t="str">
         <v>11</v>
+      </c>
+      <c r="G3" t="str">
+        <v>11</v>
+      </c>
+      <c r="H3" t="str">
+        <v>12</v>
+      </c>
+      <c r="K3">
+        <v>33.35478260869566</v>
+      </c>
+      <c r="L3">
+        <v>366.90260869565225</v>
       </c>
     </row>
   </sheetData>
@@ -502,25 +536,28 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>0.00</v>
+        <v>121.21</v>
       </c>
       <c r="B2" t="str">
-        <v>0.00</v>
+        <v>12.21</v>
       </c>
       <c r="C2" t="str">
-        <v>0.00</v>
+        <v>213.21</v>
       </c>
       <c r="D2" t="str">
-        <v>0.00</v>
+        <v>123.21</v>
       </c>
       <c r="E2" t="str">
-        <v>0.00</v>
+        <v>21.32</v>
       </c>
       <c r="F2" t="str">
-        <v>0.00</v>
+        <v>491.16</v>
       </c>
       <c r="G2" t="str">
         <v>01211</v>
+      </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
       </c>
     </row>
   </sheetData>
